--- a/data/case1/18/Q_device_13.xlsx
+++ b/data/case1/18/Q_device_13.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.036575524371480851</v>
+        <v>-0.021519257133428595</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.036529915390494022</v>
+        <v>-0.021122500817468581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.028352123061937663</v>
+        <v>-0.014013515714812306</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.029661134143359816</v>
+        <v>-0.040831184676669942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0092827224210091253</v>
+        <v>-0.00072270596763810313</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0095645562559694038</v>
+        <v>-0.00057434853241421148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0041869889560375434</v>
+        <v>-0.088976408078623087</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0042158142576298298</v>
+        <v>-0.088894454114066823</v>
       </c>
     </row>
     <row r="5">
